--- a/企業実習（要件定義）.xlsx
+++ b/企業実習（要件定義）.xlsx
@@ -591,11 +591,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2133600" cy="1590675"/>
+    <xdr:ext cx="2247900" cy="1028700"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
@@ -603,8 +603,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4280470" y="2985933"/>
-          <a:ext cx="2131060" cy="1588135"/>
+          <a:off x="4280475" y="2985928"/>
+          <a:ext cx="2225400" cy="1011300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -675,6 +675,28 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>必要なスタッフ配員数の設定</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1000"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
             <a:t>②シフトの種類登録</a:t>
           </a:r>
           <a:endParaRPr sz="1000"/>
@@ -697,78 +719,6 @@
           </a:r>
           <a:endParaRPr sz="1000"/>
         </a:p>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1000"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>　　氏名：</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1000"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>　　業務スキル：</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1000"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>　　勤務形態：</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
-        <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buSzPts val="1000"/>
-            <a:buFont typeface="Arial"/>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1000"/>
-            <a:t>④必要なスタッフ人数の設定</a:t>
-          </a:r>
-          <a:endParaRPr sz="1000"/>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="0"/>
@@ -776,9 +726,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2038350" cy="962025"/>
     <xdr:grpSp>
@@ -1164,10 +1114,10 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2038350" cy="1038225"/>
+    <xdr:ext cx="2047875" cy="1066800"/>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
         <xdr:cNvPr id="4" name="Shape 4" title="図形描画"/>
@@ -1176,9 +1126,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="4326825" y="3260888"/>
-          <a:ext cx="2038350" cy="1038225"/>
+          <a:ext cx="2030471" cy="1046061"/>
           <a:chOff x="4326825" y="3260888"/>
-          <a:chExt cx="2038350" cy="1038225"/>
+          <a:chExt cx="2030471" cy="1046061"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -1189,9 +1139,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="4326825" y="3260888"/>
-            <a:ext cx="2038350" cy="1038225"/>
+            <a:ext cx="2030471" cy="1046061"/>
             <a:chOff x="4800" y="4285"/>
-            <a:chExt cx="3363" cy="1590"/>
+            <a:chExt cx="3350" cy="1602"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp>
@@ -1242,7 +1192,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4800" y="4387"/>
-              <a:ext cx="3363" cy="1488"/>
+              <a:ext cx="3300" cy="1500"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1290,7 +1240,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="4800" y="4285"/>
-              <a:ext cx="1683" cy="1261"/>
+              <a:ext cx="1800" cy="1200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1403,104 +1353,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5580" y="4980"/>
-              <a:ext cx="1310" cy="177"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln cap="flat" cmpd="sng" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-              <a:headEnd len="sm" w="sm" type="none"/>
-              <a:tailEnd len="sm" w="sm" type="none"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buSzPts val="1400"/>
-                <a:buFont typeface="Arial"/>
-                <a:buNone/>
-              </a:pPr>
-              <a:r>
-                <a:t/>
-              </a:r>
-              <a:endParaRPr sz="1400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Shape 18"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6124" y="5224"/>
-              <a:ext cx="1314" cy="175"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:ln cap="flat" cmpd="sng" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-              <a:headEnd len="sm" w="sm" type="none"/>
-              <a:tailEnd len="sm" w="sm" type="none"/>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
-                <a:spcBef>
-                  <a:spcPts val="0"/>
-                </a:spcBef>
-                <a:spcAft>
-                  <a:spcPts val="0"/>
-                </a:spcAft>
-                <a:buSzPts val="1400"/>
-                <a:buFont typeface="Arial"/>
-                <a:buNone/>
-              </a:pPr>
-              <a:r>
-                <a:t/>
-              </a:r>
-              <a:endParaRPr sz="1400"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="19" name="Shape 19"/>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
               <a:off x="6551" y="5497"/>
-              <a:ext cx="1232" cy="311"/>
+              <a:ext cx="1242" cy="324"/>
             </a:xfrm>
             <a:prstGeom prst="flowChartTerminator">
               <a:avLst/>
@@ -1537,13 +1391,105 @@
               </a:pPr>
               <a:r>
                 <a:rPr lang="en-US" sz="800"/>
-                <a:t>新規登録</a:t>
+                <a:t>登録確認</a:t>
               </a:r>
               <a:endParaRPr sz="800"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Shape 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4816475" y="3683175"/>
+            <a:ext cx="750000" cy="91800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Shape 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5206325" y="3838275"/>
+            <a:ext cx="750000" cy="91800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
     </xdr:grpSp>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
@@ -1883,8 +1829,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381000" cy="1962150"/>
     <xdr:grpSp>
@@ -1932,8 +1878,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="352425" cy="2085975"/>
     <xdr:grpSp>
@@ -1981,10 +1927,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1962150" cy="1095375"/>
     <xdr:grpSp>
@@ -2256,8 +2202,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2352675" cy="1485900"/>
     <xdr:grpSp>
@@ -2482,9 +2428,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="676275" cy="38100"/>
     <xdr:grpSp>
@@ -2581,8 +2527,8 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="457200" cy="38100"/>
     <xdr:grpSp>
@@ -2629,9 +2575,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="361950" cy="38100"/>
     <xdr:grpSp>
@@ -2731,7 +2677,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1438275" cy="400050"/>
     <xdr:sp>
@@ -2828,10 +2774,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="971550" cy="333375"/>
     <xdr:sp>
@@ -2879,10 +2825,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1247775" cy="390525"/>
     <xdr:sp>
@@ -2920,7 +2866,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1200"/>
-            <a:t>loginServlet</a:t>
+            <a:t>LoginServlet</a:t>
           </a:r>
           <a:endParaRPr sz="1200"/>
         </a:p>
@@ -2931,11 +2877,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1362075" cy="390525"/>
+    <xdr:ext cx="1343025" cy="381000"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="44" name="Shape 44"/>
@@ -2971,7 +2917,2348 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>loginLogic.java</a:t>
+            <a:t>L</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>oginLogic.java</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="438150" cy="19050"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2540800" y="3229425"/>
+          <a:ext cx="420300" cy="0"/>
+          <a:chOff x="2540800" y="3229425"/>
+          <a:chExt cx="420300" cy="0"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="45" name="Shape 45"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2540800" y="3229425"/>
+            <a:ext cx="420300" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="med" w="med" type="none"/>
+            <a:tailEnd len="med" w="med" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2238375" cy="1333500"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1530075" y="1634425"/>
+          <a:ext cx="2221500" cy="1315775"/>
+          <a:chOff x="1530075" y="1634425"/>
+          <a:chExt cx="2221500" cy="1315775"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="Shape 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1530075" y="1634425"/>
+            <a:ext cx="2221500" cy="1264800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="Shape 47"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1553950" y="1634425"/>
+            <a:ext cx="1251000" cy="380400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>ユーザー登録確認</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="Shape 48"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1616275" y="2014825"/>
+            <a:ext cx="1895100" cy="380400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>登録</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>内容は以下の通りです。</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="Shape 49"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1616275" y="2347350"/>
+            <a:ext cx="1895100" cy="380400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>ユーザー名：{name}</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="Shape 50"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1616275" y="2569800"/>
+            <a:ext cx="1895100" cy="380400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>パスワード</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>：{pass}</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="Shape 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3121225" y="2419888"/>
+            <a:ext cx="530400" cy="210300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd fmla="val 16667" name="adj"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9FC5E8"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>OK</a:t>
+            </a:r>
+            <a:endParaRPr sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="Shape 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3121225" y="2654875"/>
+            <a:ext cx="530400" cy="210300"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd fmla="val 16667" name="adj"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9FC5E8"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100"/>
+              <a:t>編集</a:t>
+            </a:r>
+            <a:endParaRPr sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1895475" cy="447675"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Shape 53"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2460050" y="2249175"/>
+          <a:ext cx="1877700" cy="431700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>RegisterUserSarvlet</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1714500" cy="428625"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Shape 54"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1998150" y="1978075"/>
+          <a:ext cx="1696800" cy="411600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>RegisterComfirmSarvlet</a:t>
+          </a:r>
+          <a:endParaRPr sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1181100" cy="371475"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Shape 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1727050" y="803275"/>
+          <a:ext cx="1164900" cy="351300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>basicS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>etting.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1123950" cy="390525"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Shape 56"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1757175" y="1526225"/>
+          <a:ext cx="1104600" cy="371400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>shift-create.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4314825" cy="1666875"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2898525" y="1692875"/>
+          <a:ext cx="4296900" cy="1643300"/>
+          <a:chOff x="2898525" y="1692875"/>
+          <a:chExt cx="4296900" cy="1643300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="57" name="Shape 57"/>
+          <xdr:cNvPicPr preferRelativeResize="0"/>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2">
+            <a:alphaModFix/>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2952750" y="2179250"/>
+            <a:ext cx="4201326" cy="1068850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="Shape 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2898525" y="1747075"/>
+            <a:ext cx="4296900" cy="1589100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="Shape 59"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2952750" y="1692875"/>
+            <a:ext cx="1713600" cy="366300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>シフト表を作成しました</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="400050" cy="514350"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Shape 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2761275" y="1415775"/>
+          <a:ext cx="381550" cy="492025"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="361950" cy="504825"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Shape 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343650" y="1315375"/>
+          <a:ext cx="341400" cy="481975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:ln cap="flat" cmpd="sng" w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd len="sm" w="sm" type="none"/>
+          <a:tailEnd len="sm" w="sm" type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="942975" cy="381000"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Shape 62"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209025" y="1315375"/>
+          <a:ext cx="923700" cy="361500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>register.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="762000" cy="371475"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Shape 63"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2008200" y="843450"/>
+          <a:ext cx="743100" cy="351300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>login.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2133600" cy="1685925"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1084425" y="1014150"/>
+          <a:ext cx="2111700" cy="1664400"/>
+          <a:chOff x="1084425" y="1014150"/>
+          <a:chExt cx="2111700" cy="1664400"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="64" name="Shape 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1084425" y="1014150"/>
+            <a:ext cx="2111700" cy="1664400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="Shape 65"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1124675" y="1044200"/>
+            <a:ext cx="1245000" cy="291300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>業務の種類の登録</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="Shape 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1645625" y="1335500"/>
+            <a:ext cx="1094400" cy="220800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="Shape 67"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2497825" y="1862150"/>
+            <a:ext cx="669276" cy="230904"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartTerminator">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9FC5E8"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>登録</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="68" name="Shape 68"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1157575" y="2061925"/>
+            <a:ext cx="1281900" cy="616500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>登録</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>済の業務一覧</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>・</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="Shape 69"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1157575" y="1540650"/>
+            <a:ext cx="1795200" cy="291300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>必要なスタッフ配員数/日：</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="Shape 70"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1157575" y="1300250"/>
+            <a:ext cx="604500" cy="291300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>業務</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>：</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="Shape 71"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1157575" y="1831950"/>
+            <a:ext cx="604500" cy="291300"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="Shape 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2789538" y="1591550"/>
+            <a:ext cx="234000" cy="220800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2828925" cy="1695450"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1566400" y="572325"/>
+          <a:ext cx="2810700" cy="1672800"/>
+          <a:chOff x="1566400" y="572325"/>
+          <a:chExt cx="2810700" cy="1672800"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="Shape 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1566400" y="572325"/>
+            <a:ext cx="2810700" cy="1672800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="Shape 74"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1632875" y="623650"/>
+            <a:ext cx="1366500" cy="317400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>シフトの種類の登録</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="Shape 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1684775" y="1031900"/>
+            <a:ext cx="1484700" cy="215400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="Shape 76"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1684775" y="1371350"/>
+            <a:ext cx="1941300" cy="317400"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>登録済の</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>シフトの種類</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>一覧</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>・日勤</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>・夜勤</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>・半日(午前)</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>・半日(午後)</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="Shape 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3554850" y="1031900"/>
+            <a:ext cx="538650" cy="215406"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartTerminator">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9FC5E8"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>登録</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2390775" cy="1352550"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Shape 2" title="図形描画"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1626650" y="963925"/>
+          <a:ext cx="2369700" cy="1333900"/>
+          <a:chOff x="1626650" y="963925"/>
+          <a:chExt cx="2369700" cy="1333900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="Shape 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1626650" y="963925"/>
+            <a:ext cx="2369700" cy="1333800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="Shape 79"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1717000" y="1034225"/>
+            <a:ext cx="1405800" cy="331500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>スタッフ登録</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="Shape 80"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1717000" y="1365725"/>
+            <a:ext cx="1905900" cy="932100"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>氏名：</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>業務スキル：</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>勤務形態：週　　勤務</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>シフト種類：</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="Shape 81"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3213125" y="1958000"/>
+            <a:ext cx="722952" cy="230958"/>
+          </a:xfrm>
+          <a:prstGeom prst="flowChartTerminator">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="9FC5E8"/>
+          </a:solidFill>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1000"/>
+              <a:t>登録</a:t>
+            </a:r>
+            <a:endParaRPr sz="1000"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="Shape 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2234400" y="1464475"/>
+            <a:ext cx="805800" cy="123000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="Shape 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2597125" y="1632750"/>
+            <a:ext cx="805800" cy="123000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="Shape 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2562975" y="1932000"/>
+            <a:ext cx="650100" cy="123000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln cap="flat" cmpd="sng" w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+            <a:headEnd len="sm" w="sm" type="none"/>
+            <a:tailEnd len="sm" w="sm" type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr anchorCtr="0" anchor="ctr" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="ctr">
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buNone/>
+            </a:pPr>
+            <a:r>
+              <a:t/>
+            </a:r>
+            <a:endParaRPr sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1076325" cy="419100"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Shape 85"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2280625" y="1298050"/>
+          <a:ext cx="1060800" cy="400200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>loginResult.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266825" cy="390525"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="Shape 86"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1837500" y="843450"/>
+          <a:ext cx="1245000" cy="371400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>jobTypeForm.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="971550" cy="390525"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="Shape 87"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1335450" y="582375"/>
+          <a:ext cx="954000" cy="371400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>staffForm.jsp</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1314450" cy="438150"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Shape 88"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1998150" y="893650"/>
+          <a:ext cx="1295400" cy="421800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>shiftTypeForm.jsp</a:t>
           </a:r>
           <a:endParaRPr sz="1000"/>
         </a:p>
@@ -6474,7 +8761,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>

--- a/企業実習（要件定義）.xlsx
+++ b/企業実習（要件定義）.xlsx
@@ -12,14 +12,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="skfusLUusxsX5y49cjFtmAmob9vHpmvxRBEaxb4g8o8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="9rfSEj5kBVR/XHY7Z3vL5DEYHybCjK6ZkHiQ9WGGmEY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="82">
   <si>
     <t>納品先(企業名)</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>出勤人数</t>
+  </si>
+  <si>
+    <t>日当たり必要な人数</t>
   </si>
 </sst>
 </file>
@@ -7585,7 +7588,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>-114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5153025" cy="5772150"/>
+    <xdr:ext cx="5153025" cy="5953125"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="134" name="Shape 134"/>
@@ -7594,7 +7597,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2779025" y="1567350"/>
-          <a:ext cx="5133900" cy="5752200"/>
+          <a:ext cx="5133900" cy="5931000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7694,7 +7697,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
-            <a:t>CREATE TABLE job_types ( job_id INT AUTO_INCREMENT PRIMARY KEY, -- 業務ID (自動採番) job_name VARCHAR(255) NOT NULL -- 業務名 ); </a:t>
+            <a:t>CREATE TABLE job_types ( job_id INT AUTO_INCREMENT PRIMARY KEY, -- 業務ID (自動採番) job_name VARCHAR(255) NOT NULL, -- 業務名 staff_required INT); </a:t>
           </a:r>
           <a:endParaRPr sz="1000"/>
         </a:p>
@@ -7923,6 +7926,23 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buSzPts val="1000"/>
+            <a:buFont typeface="Arial"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t> </a:t>
           </a:r>
@@ -7983,6 +8003,1526 @@
           <a:r>
             <a:rPr lang="en-US" sz="1000"/>
             <a:t>CREATE TABLE staff_user_mapping ( id INT AUTO_INCREMENT PRIMARY KEY, -- 自動採番のID useraccount_id INT NOT NULL, -- useraccountsテーブルのID staff_id INT NOT NULL, -- staffテーブルのID name VARCHAR(255) NOT NULL, -- 名前（useraccounts と staff） FOREIGN KEY (useraccount_id) REFERENCES useraccounts(id), -- useraccountsのIDを参照 FOREIGN KEY (staff_id) REFERENCES staff(staff_id) -- staffのstaff_idを参照 );</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>-104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10915650" cy="8172450"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="Shape 135"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="-67225" y="65725"/>
+          <a:ext cx="10972800" cy="14601600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>IDが重複して登録できない場合の解決方法</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>解決方法:</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> の自動インクリメントをリセットし、新しい </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> が期待通りにインクリメントされるようにします。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>手順:</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>1. テーブルからデータを削除</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>まず、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルのデータを削除します。これにより、既存のスタッフ情報を消去できます。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>コードをコピーする</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>DELETE FROM STAFF;</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>2. AUTO_INCREMENT のリセット</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>次に、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> の自動インクリメントの値をリセットします。これにより、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> が次に挿入される行から 1 から始まるようになります。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>コードをコピーする</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>ALTER TABLE STAFF ALTER COLUMN STAFF_ID RESTART WITH 1;</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>このSQL文により、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> のシーケンスがリセットされ、次回の挿入時に 1 から始まるように設定されます。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>3. 新しいデータの挿入</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>その後、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルに新しいデータを挿入します。これにより、リセットされた </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> を使ってスタッフ情報を再登録できます。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>コードをコピーする</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>INSERT INTO STAFF (STAFF_NAME, WEEKLY_WORK_DAYS, SHIFT_TYPE_ID) VALUES ('新しいスタッフ', 3, 1);</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>これで、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> は 1 から始まり、新しいスタッフが挿入される際にユニークインデックス違反が解消されます。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>補足: 外部キー制約の影響</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルが </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>SHIFT_TYPES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルと外部キー制約で関連している場合、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルのデータを削除する前に、関連するデータが他のテーブルに依存していないことを確認する必要があります。H2では外部キー制約を無効化してから削除することもできます。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>外部キー制約を無効化する方法:</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>コードをコピーする</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>-- 外部キー制約を無効化</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>SET REFERENTIAL_INTEGRITY FALSE;</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>-- STAFF テーブルからデータを削除</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>DELETE FROM STAFF;</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>-- 外部キー制約を有効化</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>SET REFERENTIAL_INTEGRITY TRUE;</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>参照されているデータを先に削除する方法:</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルのデータを削除する前に、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>SHIFT_TYPES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルの </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>SHIFT_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> を参照しているデータを削除する方法です。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>sql</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>コードをコピーする</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>-- STAFF テーブルの関連データを削除</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>DELETE FROM STAFF WHERE SHIFT_TYPE_ID IN (SELECT SHIFT_ID FROM SHIFT_TYPES);</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>-- STAFF テーブルからデータを削除</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>DELETE FROM STAFF;</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000">
+            <a:solidFill>
+              <a:srgbClr val="188038"/>
+            </a:solidFill>
+            <a:latin typeface="Roboto Mono"/>
+            <a:ea typeface="Roboto Mono"/>
+            <a:cs typeface="Roboto Mono"/>
+            <a:sym typeface="Roboto Mono"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>これにより、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルのデータを削除する際の外部キー制約の違反を回避することができます。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1400"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1000"/>
+            <a:t>結論</a:t>
+          </a:r>
+          <a:endParaRPr b="1" sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="115000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> の重複エラーを解決するためには、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> テーブルのデータを削除した後に </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> の自動インクリメントをリセットする方法が有効です。これにより、新しく挿入されるスタッフの </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:srgbClr val="188038"/>
+              </a:solidFill>
+              <a:latin typeface="Roboto Mono"/>
+              <a:ea typeface="Roboto Mono"/>
+              <a:cs typeface="Roboto Mono"/>
+              <a:sym typeface="Roboto Mono"/>
+            </a:rPr>
+            <a:t>STAFF_ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t> は 1 から始まり、ユニークインデックス違反を防ぐことができます。外部キー制約に関しては、制約を無効化するか、先に参照されているデータを削除してから操作を行うことをお勧めします。</a:t>
+          </a:r>
+          <a:endParaRPr sz="1000"/>
+        </a:p>
+        <a:p>
+          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+            <a:spcBef>
+              <a:spcPts val="1200"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:t/>
           </a:r>
           <a:endParaRPr sz="1000"/>
         </a:p>
@@ -10516,7 +12056,7 @@
         <v>2.0</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1">
+      <c r="E12" s="9">
         <v>6.0</v>
       </c>
     </row>
@@ -10715,8 +12255,8 @@
       <c r="B35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="1">
-        <v>0.5</v>
+      <c r="C35" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
@@ -10726,8 +12266,8 @@
       <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="1">
-        <v>0.5</v>
+      <c r="C36" s="9">
+        <v>1.0</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
@@ -12797,7 +14337,10 @@
       <c r="AG25" s="14"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="B26" s="14"/>
+      <c r="A26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="3"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -12831,7 +14374,12 @@
       <c r="AG26" s="14"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="B27" s="14"/>
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.0</v>
+      </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -12865,7 +14413,12 @@
       <c r="AG27" s="14"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="B28" s="14"/>
+      <c r="A28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.0</v>
+      </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -12899,7 +14452,12 @@
       <c r="AG28" s="14"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="B29" s="14"/>
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.0</v>
+      </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -12933,7 +14491,12 @@
       <c r="AG29" s="14"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="B30" s="14"/>
+      <c r="A30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2.0</v>
+      </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
@@ -12967,7 +14530,12 @@
       <c r="AG30" s="14"/>
     </row>
     <row r="31" ht="12.0" customHeight="1">
-      <c r="B31" s="14"/>
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1.0</v>
+      </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -13001,7 +14569,12 @@
       <c r="AG31" s="14"/>
     </row>
     <row r="32" ht="12.0" customHeight="1">
-      <c r="B32" s="14"/>
+      <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1.0</v>
+      </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
@@ -13035,7 +14608,12 @@
       <c r="AG32" s="14"/>
     </row>
     <row r="33" ht="12.0" customHeight="1">
-      <c r="B33" s="14"/>
+      <c r="A33" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1.0</v>
+      </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -13069,7 +14647,12 @@
       <c r="AG33" s="14"/>
     </row>
     <row r="34" ht="12.0" customHeight="1">
-      <c r="B34" s="14"/>
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1.0</v>
+      </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -13103,7 +14686,12 @@
       <c r="AG34" s="14"/>
     </row>
     <row r="35" ht="12.0" customHeight="1">
-      <c r="B35" s="14"/>
+      <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="9">
+        <v>1.0</v>
+      </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -13137,7 +14725,12 @@
       <c r="AG35" s="14"/>
     </row>
     <row r="36" ht="12.0" customHeight="1">
-      <c r="B36" s="14"/>
+      <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="9">
+        <v>1.0</v>
+      </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
@@ -19596,7 +21189,40 @@
       <c r="AF225" s="14"/>
       <c r="AG225" s="14"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="226" ht="12.0" customHeight="1">
+      <c r="B226" s="14"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="14"/>
+      <c r="F226" s="14"/>
+      <c r="G226" s="14"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="14"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="14"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="14"/>
+      <c r="N226" s="14"/>
+      <c r="O226" s="14"/>
+      <c r="P226" s="14"/>
+      <c r="Q226" s="14"/>
+      <c r="R226" s="14"/>
+      <c r="S226" s="14"/>
+      <c r="T226" s="14"/>
+      <c r="U226" s="14"/>
+      <c r="V226" s="14"/>
+      <c r="W226" s="14"/>
+      <c r="X226" s="14"/>
+      <c r="Y226" s="14"/>
+      <c r="Z226" s="14"/>
+      <c r="AA226" s="14"/>
+      <c r="AB226" s="14"/>
+      <c r="AC226" s="14"/>
+      <c r="AD226" s="14"/>
+      <c r="AE226" s="14"/>
+      <c r="AF226" s="14"/>
+      <c r="AG226" s="14"/>
+    </row>
     <row r="227" ht="15.75" customHeight="1"/>
     <row r="228" ht="15.75" customHeight="1"/>
     <row r="229" ht="15.75" customHeight="1"/>
@@ -20371,6 +21997,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A17:A18"/>
